--- a/ML/ML Tasks/ML Tasks.xlsx
+++ b/ML/ML Tasks/ML Tasks.xlsx
@@ -4,6 +4,7 @@
   <workbookPr/>
   <sheets>
     <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId4"/>
+    <sheet state="visible" name="Sheet2" sheetId="2" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr/>
@@ -11,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="37">
   <si>
     <t>Matrix A</t>
   </si>
@@ -44,13 +45,91 @@
   </si>
   <si>
     <t>Intercept(c)</t>
+  </si>
+  <si>
+    <t>Manual</t>
+  </si>
+  <si>
+    <t>y = mx + c</t>
+  </si>
+  <si>
+    <t>Multiple R</t>
+  </si>
+  <si>
+    <t>R square</t>
+  </si>
+  <si>
+    <t>SUMMARY OUTPUT</t>
+  </si>
+  <si>
+    <t>Regression Statistics</t>
+  </si>
+  <si>
+    <t>R Square</t>
+  </si>
+  <si>
+    <t>Adjusted R Square</t>
+  </si>
+  <si>
+    <t>Standard Error</t>
+  </si>
+  <si>
+    <t>Observations</t>
+  </si>
+  <si>
+    <t>ANOVA</t>
+  </si>
+  <si>
+    <t>df</t>
+  </si>
+  <si>
+    <t>SS</t>
+  </si>
+  <si>
+    <t>MS</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>Significance F</t>
+  </si>
+  <si>
+    <t>Regression</t>
+  </si>
+  <si>
+    <t>Residual</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>Coefficients</t>
+  </si>
+  <si>
+    <t>t Stat</t>
+  </si>
+  <si>
+    <t>P-value</t>
+  </si>
+  <si>
+    <t>Lower 95%</t>
+  </si>
+  <si>
+    <t>Upper 95%</t>
+  </si>
+  <si>
+    <t>Intercept</t>
+  </si>
+  <si>
+    <t>X Variable 1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="4">
+  <fonts count="6">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -68,8 +147,20 @@
       <scheme val="minor"/>
     </font>
     <font/>
+    <font>
+      <i/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Arial"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -80,6 +171,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FF9900FF"/>
         <bgColor rgb="FF9900FF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0000FF"/>
+        <bgColor rgb="FF0000FF"/>
       </patternFill>
     </fill>
   </fills>
@@ -133,7 +230,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="14">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -153,6 +250,22 @@
     </xf>
     <xf borderId="4" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf borderId="4" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf borderId="1" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="4" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="4" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf borderId="4" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -260,11 +373,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1670357437"/>
-        <c:axId val="1193583004"/>
+        <c:axId val="402556754"/>
+        <c:axId val="177484079"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1670357437"/>
+        <c:axId val="402556754"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -339,10 +452,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1193583004"/>
+        <c:crossAx val="177484079"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1193583004"/>
+        <c:axId val="177484079"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -417,7 +530,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1670357437"/>
+        <c:crossAx val="402556754"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -471,6 +584,10 @@
     <xdr:clientData fLocksWithSheet="0"/>
   </xdr:oneCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -671,6 +788,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
+    <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -913,6 +1031,630 @@
     <mergeCell ref="B11:C11"/>
     <mergeCell ref="E11:F11"/>
   </mergeCells>
+  <printOptions gridLines="1" horizontalCentered="1"/>
+  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup fitToHeight="0" cellComments="atEnd" orientation="landscape" pageOrder="overThenDown"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+    </row>
+    <row r="2">
+      <c r="B2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="3"/>
+      <c r="E2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="3"/>
+      <c r="M2" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="N2" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="P2" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q2" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="B3" s="6">
+        <v>4.0</v>
+      </c>
+      <c r="C3" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="E3" s="6">
+        <v>4.0</v>
+      </c>
+      <c r="F3" s="6">
+        <v>3.0</v>
+      </c>
+      <c r="G3" s="6">
+        <v>7.0</v>
+      </c>
+      <c r="H3" s="6">
+        <v>2.0</v>
+      </c>
+      <c r="I3" s="6">
+        <v>6.0</v>
+      </c>
+      <c r="J3" s="6">
+        <v>8.0</v>
+      </c>
+      <c r="M3" s="6">
+        <v>4.0</v>
+      </c>
+      <c r="N3" s="6">
+        <v>16.0</v>
+      </c>
+      <c r="P3" s="8"/>
+      <c r="Q3" s="7">
+        <f>(J12*M3+J13)</f>
+        <v>16.5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="B4" s="6">
+        <v>3.0</v>
+      </c>
+      <c r="C4" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="E4" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="F4" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="G4" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="H4" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="I4" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="J4" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="M4" s="6">
+        <v>3.0</v>
+      </c>
+      <c r="N4" s="6">
+        <v>12.0</v>
+      </c>
+      <c r="P4" s="8"/>
+      <c r="Q4" s="7">
+        <f>(J12*M4+J13)</f>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="B5" s="6">
+        <v>7.0</v>
+      </c>
+      <c r="C5" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="M5" s="6">
+        <v>7.0</v>
+      </c>
+      <c r="N5" s="6">
+        <v>20.0</v>
+      </c>
+      <c r="P5" s="8"/>
+      <c r="Q5" s="7">
+        <f>(J12*M5+J13)</f>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="B6" s="6">
+        <v>2.0</v>
+      </c>
+      <c r="C6" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="M6" s="6">
+        <v>2.0</v>
+      </c>
+      <c r="N6" s="6">
+        <v>17.0</v>
+      </c>
+      <c r="P6" s="8"/>
+      <c r="Q6" s="7">
+        <f>(J12*M6+J13)</f>
+        <v>13.5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="B7" s="6">
+        <v>6.0</v>
+      </c>
+      <c r="C7" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="M7" s="6">
+        <v>6.0</v>
+      </c>
+      <c r="N7" s="6">
+        <v>18.0</v>
+      </c>
+      <c r="P7" s="8"/>
+      <c r="Q7" s="7">
+        <f>(J12*M7+J13)</f>
+        <v>19.5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="B8" s="6">
+        <v>8.0</v>
+      </c>
+      <c r="C8" s="6">
+        <v>1.0</v>
+      </c>
+      <c r="M8" s="6">
+        <v>8.0</v>
+      </c>
+      <c r="N8" s="6">
+        <v>25.0</v>
+      </c>
+      <c r="P8" s="8"/>
+      <c r="Q8" s="7">
+        <f>(J12*M8+J13)</f>
+        <v>22.5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="M9" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="N9" s="7">
+        <f>SLOPE(N3:N8,M3:M8)</f>
+        <v>1.5</v>
+      </c>
+      <c r="P9" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q9" s="7">
+        <f>CORREL(N3:N8,Q3:Q8)</f>
+        <v>0.8186652344</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="M10" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="N10" s="7">
+        <f>CORREL(M3:M8,N3:N8)</f>
+        <v>0.8186652344</v>
+      </c>
+      <c r="P10" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q10" s="7">
+        <f>Q9*Q9</f>
+        <v>0.670212766</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="B11" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" s="3"/>
+      <c r="E11" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F11" s="4"/>
+      <c r="H11" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="J11" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="M11" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="N11" s="7">
+        <f>INTERCEPT(N3:N8,M3:M8)</f>
+        <v>10.5</v>
+      </c>
+      <c r="Q11" s="9"/>
+    </row>
+    <row r="12">
+      <c r="B12" s="7">
+        <f t="array" ref="B12:C13">MMULT(E3:J4,B3:C8)</f>
+        <v>178</v>
+      </c>
+      <c r="C12" s="7">
+        <v>30.0</v>
+      </c>
+      <c r="E12" s="7">
+        <f t="array" ref="E12:F13">MINVERSE(B12:C13)</f>
+        <v>0.03571428571</v>
+      </c>
+      <c r="F12" s="7">
+        <v>-0.17857142857142846</v>
+      </c>
+      <c r="H12" s="7">
+        <f t="array" ref="H12:H13">MMULT(E3:J4,N3:N8)</f>
+        <v>582</v>
+      </c>
+      <c r="J12" s="7">
+        <f t="array" ref="J12:J13">MMULT(E12:F13,H12:H13)</f>
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="B13" s="7">
+        <v>30.0</v>
+      </c>
+      <c r="C13" s="7">
+        <v>6.0</v>
+      </c>
+      <c r="E13" s="7">
+        <v>-0.17857142857142846</v>
+      </c>
+      <c r="F13" s="7">
+        <v>1.0595238095238089</v>
+      </c>
+      <c r="H13" s="7">
+        <v>108.0</v>
+      </c>
+      <c r="J13" s="7">
+        <v>10.5</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="M15" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="N15" s="4"/>
+      <c r="O15" s="4"/>
+      <c r="P15" s="4"/>
+      <c r="Q15" s="4"/>
+      <c r="R15" s="4"/>
+      <c r="S15" s="4"/>
+      <c r="T15" s="4"/>
+      <c r="U15" s="3"/>
+      <c r="V15" s="9"/>
+    </row>
+    <row r="16">
+      <c r="M16" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="N16" s="3"/>
+      <c r="O16" s="7"/>
+      <c r="P16" s="7"/>
+      <c r="Q16" s="7"/>
+      <c r="R16" s="7"/>
+      <c r="S16" s="7"/>
+      <c r="T16" s="7"/>
+      <c r="U16" s="7"/>
+      <c r="V16" s="9"/>
+    </row>
+    <row r="17">
+      <c r="M17" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="N17" s="11">
+        <v>0.818665234364723</v>
+      </c>
+      <c r="O17" s="7"/>
+      <c r="P17" s="7"/>
+      <c r="Q17" s="7"/>
+      <c r="R17" s="7"/>
+      <c r="S17" s="7"/>
+      <c r="T17" s="7"/>
+      <c r="U17" s="7"/>
+      <c r="V17" s="9"/>
+    </row>
+    <row r="18">
+      <c r="M18" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="N18" s="11">
+        <v>0.6702127659574468</v>
+      </c>
+      <c r="O18" s="7"/>
+      <c r="P18" s="7"/>
+      <c r="Q18" s="7"/>
+      <c r="R18" s="7"/>
+      <c r="S18" s="7"/>
+      <c r="T18" s="7"/>
+      <c r="U18" s="7"/>
+      <c r="V18" s="9"/>
+    </row>
+    <row r="19">
+      <c r="M19" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="N19" s="11">
+        <v>0.5877659574468086</v>
+      </c>
+      <c r="O19" s="7"/>
+      <c r="P19" s="7"/>
+      <c r="Q19" s="7"/>
+      <c r="R19" s="7"/>
+      <c r="S19" s="7"/>
+      <c r="T19" s="7"/>
+      <c r="U19" s="7"/>
+      <c r="V19" s="9"/>
+    </row>
+    <row r="20">
+      <c r="M20" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="N20" s="11">
+        <v>2.7838821814150108</v>
+      </c>
+      <c r="O20" s="7"/>
+      <c r="P20" s="7"/>
+      <c r="Q20" s="7"/>
+      <c r="R20" s="7"/>
+      <c r="S20" s="7"/>
+      <c r="T20" s="7"/>
+      <c r="U20" s="7"/>
+      <c r="V20" s="9"/>
+    </row>
+    <row r="21">
+      <c r="M21" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="N21" s="11">
+        <v>6.0</v>
+      </c>
+      <c r="O21" s="7"/>
+      <c r="P21" s="7"/>
+      <c r="Q21" s="7"/>
+      <c r="R21" s="7"/>
+      <c r="S21" s="7"/>
+      <c r="T21" s="7"/>
+      <c r="U21" s="7"/>
+      <c r="V21" s="9"/>
+    </row>
+    <row r="22">
+      <c r="M22" s="7"/>
+      <c r="N22" s="7"/>
+      <c r="O22" s="7"/>
+      <c r="P22" s="7"/>
+      <c r="Q22" s="7"/>
+      <c r="R22" s="7"/>
+      <c r="S22" s="7"/>
+      <c r="T22" s="7"/>
+      <c r="U22" s="7"/>
+      <c r="V22" s="9"/>
+    </row>
+    <row r="23">
+      <c r="M23" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="N23" s="7"/>
+      <c r="O23" s="7"/>
+      <c r="P23" s="7"/>
+      <c r="Q23" s="7"/>
+      <c r="R23" s="7"/>
+      <c r="S23" s="7"/>
+      <c r="T23" s="7"/>
+      <c r="U23" s="7"/>
+      <c r="V23" s="9"/>
+    </row>
+    <row r="24">
+      <c r="M24" s="12"/>
+      <c r="N24" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="O24" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="P24" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q24" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="R24" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="S24" s="7"/>
+      <c r="T24" s="7"/>
+      <c r="U24" s="7"/>
+      <c r="V24" s="9"/>
+    </row>
+    <row r="25">
+      <c r="M25" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="N25" s="11">
+        <v>1.0</v>
+      </c>
+      <c r="O25" s="11">
+        <v>63.0</v>
+      </c>
+      <c r="P25" s="11">
+        <v>63.0</v>
+      </c>
+      <c r="Q25" s="11">
+        <v>8.129032258064516</v>
+      </c>
+      <c r="R25" s="11">
+        <v>0.04634209378243892</v>
+      </c>
+      <c r="S25" s="7"/>
+      <c r="T25" s="7"/>
+      <c r="U25" s="7"/>
+      <c r="V25" s="9"/>
+    </row>
+    <row r="26">
+      <c r="M26" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="N26" s="11">
+        <v>4.0</v>
+      </c>
+      <c r="O26" s="11">
+        <v>31.0</v>
+      </c>
+      <c r="P26" s="11">
+        <v>7.75</v>
+      </c>
+      <c r="Q26" s="7"/>
+      <c r="R26" s="7"/>
+      <c r="S26" s="7"/>
+      <c r="T26" s="7"/>
+      <c r="U26" s="7"/>
+      <c r="V26" s="9"/>
+    </row>
+    <row r="27">
+      <c r="M27" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="N27" s="11">
+        <v>5.0</v>
+      </c>
+      <c r="O27" s="11">
+        <v>94.0</v>
+      </c>
+      <c r="P27" s="7"/>
+      <c r="Q27" s="7"/>
+      <c r="R27" s="7"/>
+      <c r="S27" s="7"/>
+      <c r="T27" s="7"/>
+      <c r="U27" s="7"/>
+      <c r="V27" s="9"/>
+    </row>
+    <row r="28">
+      <c r="M28" s="7"/>
+      <c r="N28" s="7"/>
+      <c r="O28" s="7"/>
+      <c r="P28" s="7"/>
+      <c r="Q28" s="7"/>
+      <c r="R28" s="7"/>
+      <c r="S28" s="7"/>
+      <c r="T28" s="7"/>
+      <c r="U28" s="7"/>
+      <c r="V28" s="9"/>
+    </row>
+    <row r="29">
+      <c r="M29" s="12"/>
+      <c r="N29" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="O29" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="P29" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q29" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="R29" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="S29" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="T29" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="U29" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="V29" s="9"/>
+    </row>
+    <row r="30">
+      <c r="M30" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="N30" s="11">
+        <v>10.5</v>
+      </c>
+      <c r="O30" s="11">
+        <v>2.8655382607477997</v>
+      </c>
+      <c r="P30" s="11">
+        <v>3.664233049626037</v>
+      </c>
+      <c r="Q30" s="11">
+        <v>0.021499991773411664</v>
+      </c>
+      <c r="R30" s="11">
+        <v>2.5439903419215435</v>
+      </c>
+      <c r="S30" s="11">
+        <v>18.456009658078457</v>
+      </c>
+      <c r="T30" s="11">
+        <v>2.5439903419215435</v>
+      </c>
+      <c r="U30" s="11">
+        <v>18.456009658078457</v>
+      </c>
+      <c r="V30" s="9"/>
+    </row>
+    <row r="31">
+      <c r="M31" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="N31" s="11">
+        <v>1.5</v>
+      </c>
+      <c r="O31" s="11">
+        <v>0.5261042808091512</v>
+      </c>
+      <c r="P31" s="11">
+        <v>2.8511457798689492</v>
+      </c>
+      <c r="Q31" s="11">
+        <v>0.04634209401130676</v>
+      </c>
+      <c r="R31" s="11">
+        <v>0.039300348346521075</v>
+      </c>
+      <c r="S31" s="11">
+        <v>2.9606996516534787</v>
+      </c>
+      <c r="T31" s="11">
+        <v>0.039300348346521075</v>
+      </c>
+      <c r="U31" s="11">
+        <v>2.9606996516534787</v>
+      </c>
+      <c r="V31" s="9"/>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="E2:J2"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="M16:N16"/>
+    <mergeCell ref="M15:U15"/>
+  </mergeCells>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/ML/ML Tasks/ML Tasks.xlsx
+++ b/ML/ML Tasks/ML Tasks.xlsx
@@ -373,11 +373,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="402556754"/>
-        <c:axId val="177484079"/>
+        <c:axId val="1937980121"/>
+        <c:axId val="1423261839"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="402556754"/>
+        <c:axId val="1937980121"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -452,10 +452,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="177484079"/>
+        <c:crossAx val="1423261839"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="177484079"/>
+        <c:axId val="1423261839"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -530,7 +530,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="402556754"/>
+        <c:crossAx val="1937980121"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
